--- a/metadata/SSD-NHANES-2017-2018.xlsx
+++ b/metadata/SSD-NHANES-2017-2018.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C80086-9AA1-DB45-951F-5F1BF3A712A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABD36D7-8823-4B4C-B1D8-CB153D760BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15720" yWindow="-24640" windowWidth="27640" windowHeight="16440" xr2:uid="{99F202CB-6519-5442-830D-344A4E1B0030}"/>
+    <workbookView xWindow="2560" yWindow="-19980" windowWidth="27640" windowHeight="16440" xr2:uid="{99F202CB-6519-5442-830D-344A4E1B0030}"/>
   </bookViews>
   <sheets>
     <sheet name="SSD" sheetId="1" r:id="rId1"/>
     <sheet name="SOC-NHANES-2017-2018-SUBJECTS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9314" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9324" uniqueCount="53">
   <si>
     <t>sheet</t>
   </si>
@@ -176,6 +177,24 @@
   </si>
   <si>
     <t>nhanes-kb:SOC-NHANES-2017-2018-HH_REF_PERSON</t>
+  </si>
+  <si>
+    <t>nhanes-kb:SOC-NHANES-2017-2018-BLOOD</t>
+  </si>
+  <si>
+    <t>Blood Sample</t>
+  </si>
+  <si>
+    <t>??blood</t>
+  </si>
+  <si>
+    <t>nhanes-kb:SOC-NHANES-2017-2018-URINE</t>
+  </si>
+  <si>
+    <t>??urine</t>
+  </si>
+  <si>
+    <t>Urine Sample</t>
   </si>
 </sst>
 </file>
@@ -527,22 +546,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B088F3-3515-904B-9B51-EE2323ADDBE3}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -731,6 +752,40 @@
       </c>
       <c r="J9" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -742,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E011250-3505-F946-B4F1-171B9963C1A6}">
   <dimension ref="A1:D9255"/>
   <sheetViews>
-    <sheetView topLeftCell="A560" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/metadata/SSD-NHANES-2017-2018.xlsx
+++ b/metadata/SSD-NHANES-2017-2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansi/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABD36D7-8823-4B4C-B1D8-CB153D760BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEA2A17-A907-A34B-A9A4-E4DE41580461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="-19980" windowWidth="27640" windowHeight="16440" xr2:uid="{99F202CB-6519-5442-830D-344A4E1B0030}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9324" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9329" uniqueCount="56">
   <si>
     <t>sheet</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>Urine Sample</t>
+  </si>
+  <si>
+    <t>nhanes-kb:SOC-NHANES-2017-2018-SERUM</t>
+  </si>
+  <si>
+    <t>??serum</t>
+  </si>
+  <si>
+    <t>Serum Sample</t>
   </si>
 </sst>
 </file>
@@ -546,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B088F3-3515-904B-9B51-EE2323ADDBE3}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:G11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,18 +782,35 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
         <v>40</v>
       </c>
       <c r="J11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
         <v>39</v>
       </c>
     </row>
